--- a/Data/Recipient-Datas.xlsx
+++ b/Data/Recipient-Datas.xlsx
@@ -1,89 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9310bee6de9d030/Desktop/PROJECTS/Bulk Mail System/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9310bee6de9d030/Desktop/PROJECTS/Bulk Mail System/testcases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_7FEF271BF218DA5CC1143A7FA96B163E35A9BD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A7D10A0-1BF4-4EA5-A51C-ED50CA34EB41}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_30F0A502F030921FD2FE31D2F84F4B8561B31101" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C84E269-4B6C-4354-9264-865A5A2B3685}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Books" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Role_Of_User</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Work_Place</t>
   </si>
   <si>
     <t>Salary</t>
   </si>
   <si>
-    <t>rishikesh1878@gmail.com</t>
-  </si>
-  <si>
-    <t>rishiaravind2004@gmail.com</t>
-  </si>
-  <si>
-    <t>rishikesh</t>
-  </si>
-  <si>
-    <t>rishiaravind</t>
-  </si>
-  <si>
-    <t>mapping</t>
+    <t>Hr</t>
   </si>
   <si>
     <t>programming</t>
   </si>
   <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>developer</t>
+    <t>Jawal</t>
+  </si>
+  <si>
+    <t>Therala</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>lara</t>
+  </si>
+  <si>
+    <t>example-email-1@gmail.com</t>
+  </si>
+  <si>
+    <t>example-email-2@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,18 +124,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -193,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +225,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +277,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,24 +474,23 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -467,35 +502,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>50000</v>
@@ -503,9 +538,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{660DBE75-F3B8-49AB-8358-E990A80F2984}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{23CCF2B1-4B6A-4A4E-80B3-A9B2CC387851}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E1977349-4569-40CC-A6B8-D903F16A3F92}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D981ECBA-9020-4855-BE76-B4018BB73DA1}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>